--- a/datasets_single/kpcb_tig.xlsx
+++ b/datasets_single/kpcb_tig.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35E27F7-AC45-EE4A-94FC-0443E6040ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B20E5-3DC6-6944-A20E-65E0C37CC823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{2D560DAC-0D4E-F841-A9F4-671EC4123FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>replicate</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>tig_s</t>
+  </si>
+  <si>
+    <t>tig_mic</t>
   </si>
 </sst>
 </file>
@@ -408,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B168EEF3-A094-0A4F-94B8-519FBC7057B6}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +438,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,8 +462,12 @@
         <f>42*E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>E2/0.38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,8 +487,12 @@
         <f t="shared" ref="F3:F23" si="0">42*E3</f>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">E3/0.38</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -498,8 +512,12 @@
         <f t="shared" si="0"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -519,8 +537,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -540,8 +562,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -561,8 +587,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -582,8 +612,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -603,8 +637,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -624,8 +662,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -645,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -666,8 +712,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -687,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -708,8 +762,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -729,8 +787,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -750,8 +812,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -771,8 +837,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -792,8 +862,12 @@
         <f t="shared" si="0"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -813,8 +887,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -834,8 +912,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -855,8 +937,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -876,8 +962,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -896,6 +986,10 @@
       <c r="F23">
         <f t="shared" si="0"/>
         <v>79.8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
